--- a/04_CPlusPlus/006 模板(泛型参数 模板类) 折半查找.xlsx
+++ b/04_CPlusPlus/006 模板(泛型参数 模板类) 折半查找.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\04_CPlusPlus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B7EE79-B960-4EB8-B257-C42C308E8B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29D71DF-2FE5-45DC-A40F-BE7A37437885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
-    <sheet name="01" sheetId="3" r:id="rId3"/>
-    <sheet name="02" sheetId="4" r:id="rId4"/>
-    <sheet name="03 函数中" sheetId="5" r:id="rId5"/>
-    <sheet name="04 类中" sheetId="8" r:id="rId6"/>
+    <sheet name="01" sheetId="3" r:id="rId2"/>
+    <sheet name="02" sheetId="4" r:id="rId3"/>
+    <sheet name="03 函数中" sheetId="5" r:id="rId4"/>
+    <sheet name="04 类中" sheetId="8" r:id="rId5"/>
+    <sheet name="模板类" sheetId="10" r:id="rId6"/>
     <sheet name="练习1" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="177">
   <si>
     <t>本节练习：</t>
   </si>
@@ -569,6 +569,14 @@
   </si>
   <si>
     <t>b2 = nullptr;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 模板类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  模板就是同一段代码，编译器对不同类型生成 不同代码。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +584,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -630,12 +638,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -680,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,8 +719,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1038,20 +1043,29 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B4:L21"/>
+  <dimension ref="B4:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="31.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P4" s="12"/>
+    </row>
+    <row r="5" spans="2:16" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="P5" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1063,47 +1077,63 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G9" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>153</v>
       </c>
       <c r="G14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>5</v>
       </c>
@@ -1132,6 +1162,7 @@
     <hyperlink ref="B11" location="'03 函数中'!A1" display="   函数中" xr:uid="{44461309-D969-4407-BB90-1880BE211A50}"/>
     <hyperlink ref="G6:L6" location="练习1!A1" display="1、使用模版实现swap(x,y)函数，功能：交换x,y的值." xr:uid="{D4C079D3-BC7E-49C4-AA1B-837289515951}"/>
     <hyperlink ref="B12" location="'04 类中'!A1" display="   结构体/类中" xr:uid="{E0158729-82F6-43A1-9925-9B33B718703C}"/>
+    <hyperlink ref="B14" location="模板类!A1" display="4、模板类" xr:uid="{E7321744-5677-41C9-B6EF-D6FA7E160594}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1140,1018 +1171,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EC0FCD-E05B-444A-8B0E-68857DDA5201}">
-  <dimension ref="B3:N62"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-      <c r="C48" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -2593,7 +1612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -3435,7 +2454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -5595,7 +4614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013C0E51-DB02-4814-9B69-25B408F24394}">
   <dimension ref="B2:G53"/>
   <sheetViews>
@@ -6111,6 +5130,1048 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EC0FCD-E05B-444A-8B0E-68857DDA5201}">
+  <dimension ref="B3:N64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+      <c r="C52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
